--- a/medicine/Mort/Cimetière_de_Boissy-Saint-Léger/Cimetière_de_Boissy-Saint-Léger.xlsx
+++ b/medicine/Mort/Cimetière_de_Boissy-Saint-Léger/Cimetière_de_Boissy-Saint-Léger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Boissy-Saint-L%C3%A9ger</t>
+          <t>Cimetière_de_Boissy-Saint-Léger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Boissy-Saint-Léger est le cimetière communal de Boissy-Saint-Léger dans le Val-de-Marne[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Boissy-Saint-Léger est le cimetière communal de Boissy-Saint-Léger dans le Val-de-Marne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Boissy-Saint-L%C3%A9ger</t>
+          <t>Cimetière_de_Boissy-Saint-Léger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière a ouvert en 1825 à côté du domaine de Grosbois qui appartint à Barras, puis au maréchal Berthier et ensuite à sa descendance. Il possède plusieurs sépultures remarquables, comme les chapelles des familles Berthier (où reposent la veuve du maréchal Berthier et ses descendants) et Murat. Un grand enclos accueille le tombeau monumental de la famille d'origine suisse des barons Hottinguer[1], banquiers de la HSP en France depuis Napoléon III et propriétaires d'un château dans cette commune.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière a ouvert en 1825 à côté du domaine de Grosbois qui appartint à Barras, puis au maréchal Berthier et ensuite à sa descendance. Il possède plusieurs sépultures remarquables, comme les chapelles des familles Berthier (où reposent la veuve du maréchal Berthier et ses descendants) et Murat. Un grand enclos accueille le tombeau monumental de la famille d'origine suisse des barons Hottinguer, banquiers de la HSP en France depuis Napoléon III et propriétaires d'un château dans cette commune.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Boissy-Saint-L%C3%A9ger</t>
+          <t>Cimetière_de_Boissy-Saint-Léger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Hottinguer (1868-1943), banquier et régent de la Banque de France
 Rodolphe Hottinguer (1835-1920), banquier et régent de la Banque de France
